--- a/Thesis-codes/Exp-9/results/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-9/results/fc1_all_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-9\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FD572F-EFC6-4018-978C-4427C667DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2657E9-BAAC-4EDD-8FC4-B358D03A8A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3703" yWindow="2546" windowWidth="27308" windowHeight="14331" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28714" yWindow="1989" windowWidth="27308" windowHeight="14331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -689,10 +689,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,10 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="2" sqref="A2:A21 E2:E21 F2:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1149,549 +1150,549 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>4.41</v>
+        <v>4.3627000000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>0.94040000000000001</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>1.46E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>1.5358000000000001</v>
+        <v>3.4504000000000001</v>
       </c>
       <c r="F2" s="3">
-        <v>0.7016</v>
+        <v>0.74729999999999996</v>
       </c>
       <c r="G2" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H2" s="1">
-        <v>1.78E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="I2" s="1">
-        <v>4.4260999999999999</v>
+        <v>4.4047999999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>4.3851000000000004</v>
+        <v>4.2797000000000001</v>
       </c>
       <c r="K2" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="L2" s="1">
-        <v>0.94110000000000005</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>0.94</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="N2" s="1">
         <v>1E-4</v>
       </c>
       <c r="O2" s="1">
-        <v>1.47E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="P2" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.36E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R2" s="1">
-        <v>1.5840000000000001</v>
+        <v>3.5546000000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>1.4783999999999999</v>
+        <v>3.3462999999999998</v>
       </c>
       <c r="T2" s="1">
-        <v>1.52E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="U2" s="1">
-        <v>0.71560000000000001</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="V2" s="1">
-        <v>0.68049999999999999</v>
+        <v>0.73440000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
-        <v>4.3510999999999997</v>
+        <v>4.3017000000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>0.94199999999999995</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>1.7454000000000001</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.74150000000000005</v>
+        <v>2.9674</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.75900000000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H3" s="1">
-        <v>5.6500000000000002E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>4.3932000000000002</v>
+        <v>4.3320999999999996</v>
       </c>
       <c r="J3" s="1">
-        <v>4.2713000000000001</v>
+        <v>4.2774999999999999</v>
       </c>
       <c r="K3" s="1">
-        <v>1.5E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="L3" s="1">
-        <v>0.94410000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="M3" s="1">
-        <v>0.94089999999999996</v>
+        <v>0.9425</v>
       </c>
       <c r="N3" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O3" s="1">
-        <v>1.47E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="P3" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.8500000000000005E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1.8308</v>
+        <v>3.1518000000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>1.663</v>
+        <v>2.8163</v>
       </c>
       <c r="T3" s="1">
-        <v>2.75E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="U3" s="1">
-        <v>0.78</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="V3" s="1">
-        <v>0.71750000000000003</v>
+        <v>0.74560000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>4.5162000000000004</v>
+        <v>4.6039000000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>0.9375</v>
+        <v>0.93510000000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>1.54E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>1.8177000000000001</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="1">
-        <v>0.76329999999999998</v>
+        <v>0.78549999999999998</v>
       </c>
       <c r="G4" s="2">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="H4" s="1">
-        <v>0.1019</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>4.6601999999999997</v>
+        <v>4.7047999999999996</v>
       </c>
       <c r="J4" s="1">
-        <v>4.4375</v>
+        <v>4.5289999999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>2.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="L4" s="1">
-        <v>0.93969999999999998</v>
+        <v>0.93720000000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>0.9335</v>
+        <v>0.93220000000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O4" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>1.8251999999999999</v>
+        <v>4.7563000000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>1.8133999999999999</v>
+        <v>4.67</v>
       </c>
       <c r="T4" s="1">
-        <v>1.11E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="U4" s="1">
-        <v>0.77600000000000002</v>
+        <v>0.81359999999999999</v>
       </c>
       <c r="V4" s="1">
-        <v>0.749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.75590000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
-        <v>4.5579000000000001</v>
+        <v>4.3719999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93640000000000001</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>1.9366000000000001</v>
+        <v>3.0118999999999998</v>
       </c>
       <c r="F5" s="3">
-        <v>0.74629999999999996</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="G5" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="H5" s="1">
-        <v>3.49E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>4.6006</v>
+        <v>4.3974000000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>4.5152000000000001</v>
+        <v>4.3501000000000003</v>
       </c>
       <c r="K5" s="1">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L5" s="1">
-        <v>0.93759999999999999</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="M5" s="1">
-        <v>0.93520000000000003</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="O5" s="1">
-        <v>1.78E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="P5" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.4399999999999998E-2</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>2.0678000000000001</v>
+        <v>3.2111000000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>1.8498000000000001</v>
+        <v>2.8982999999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>1.72E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>0.76119999999999999</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="V5" s="1">
-        <v>0.72219999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.72340000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>4.3310000000000004</v>
+        <v>4.4386000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>0.9425</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>2.0958999999999999</v>
+        <v>3.8090000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>0.83450000000000002</v>
+        <v>0.78990000000000005</v>
       </c>
       <c r="G6" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H6" s="1">
-        <v>6.6900000000000001E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>4.4233000000000002</v>
+        <v>4.484</v>
       </c>
       <c r="J6" s="1">
-        <v>4.2670000000000003</v>
+        <v>4.3800999999999997</v>
       </c>
       <c r="K6" s="1">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="L6" s="1">
-        <v>0.94420000000000004</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>0.94010000000000005</v>
+        <v>0.93840000000000001</v>
       </c>
       <c r="N6" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.915</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.6610999999999998</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.78139999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.5491999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.8042999999999996</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.4493</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="N7" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O6" s="1">
-        <v>1.54E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2.1436000000000002</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2.0602</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1.12E-2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.8448</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.81879999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.4297000000000004</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.4952000000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.5625000000000001E-6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.32E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4.4751000000000003</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.3967000000000001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.93869999999999998</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
       <c r="O7" s="1">
-        <v>1.66E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="P7" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.0099999999999999E-2</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>2.5598000000000001</v>
+        <v>4.8838999999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>2.4377</v>
+        <v>4.6778000000000004</v>
       </c>
       <c r="T7" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="U7" s="1">
-        <v>0.84719999999999995</v>
+        <v>0.8377</v>
       </c>
       <c r="V7" s="1">
-        <v>0.77270000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>4.3017000000000003</v>
+        <v>4.3510999999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>0.94330000000000003</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>1.35E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>2.9674</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.75900000000000001</v>
+        <v>1.7454000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.74150000000000005</v>
       </c>
       <c r="G8" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H8" s="1">
-        <v>2.2700000000000001E-2</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>4.3320999999999996</v>
+        <v>4.3932000000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>4.2774999999999999</v>
+        <v>4.2713000000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L8" s="1">
-        <v>0.94399999999999995</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="M8" s="1">
-        <v>0.9425</v>
+        <v>0.94089999999999996</v>
       </c>
       <c r="N8" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O8" s="1">
-        <v>1.37E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>1.32E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.13900000000000001</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>3.1518000000000002</v>
+        <v>1.8308</v>
       </c>
       <c r="S8" s="1">
-        <v>2.8163</v>
+        <v>1.663</v>
       </c>
       <c r="T8" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="U8" s="1">
-        <v>0.78039999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="V8" s="1">
-        <v>0.74560000000000004</v>
+        <v>0.71750000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>4.3719999999999999</v>
+        <v>4.41</v>
       </c>
       <c r="C9" s="1">
-        <v>0.94140000000000001</v>
+        <v>0.94040000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>1.4E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>3.0118999999999998</v>
+        <v>1.5358000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>0.74750000000000005</v>
+        <v>0.7016</v>
       </c>
       <c r="G9" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H9" s="1">
-        <v>1.95E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>4.3974000000000002</v>
+        <v>4.4260999999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>4.3501000000000003</v>
+        <v>4.3851000000000004</v>
       </c>
       <c r="K9" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L9" s="1">
-        <v>0.94199999999999995</v>
+        <v>0.94110000000000005</v>
       </c>
       <c r="M9" s="1">
-        <v>0.94079999999999997</v>
+        <v>0.94</v>
       </c>
       <c r="N9" s="1">
         <v>1E-4</v>
       </c>
       <c r="O9" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="P9" s="1">
-        <v>1.38E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.14130000000000001</v>
+        <v>4.36E-2</v>
       </c>
       <c r="R9" s="1">
-        <v>3.2111000000000001</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>2.8982999999999999</v>
+        <v>1.4783999999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>3.3300000000000003E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="U9" s="1">
-        <v>0.79459999999999997</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="V9" s="1">
-        <v>0.72340000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.68049999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1759,1231 +1760,1231 @@
         <v>0.85780000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
-        <v>4.7072000000000003</v>
+        <v>4.5895999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>0.93210000000000004</v>
+        <v>0.9355</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>3.3376000000000001</v>
+        <v>3.9121000000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>0.82310000000000005</v>
+        <v>0.83440000000000003</v>
       </c>
       <c r="G11" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="H11" s="1">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>4.7693000000000003</v>
+        <v>4.6669</v>
       </c>
       <c r="J11" s="1">
-        <v>4.6353</v>
+        <v>4.5425000000000004</v>
       </c>
       <c r="K11" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L11" s="1">
-        <v>0.93420000000000003</v>
+        <v>0.93679999999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>0.93030000000000002</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="O11" s="1">
-        <v>1.67E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P11" s="1">
-        <v>1.54E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.10680000000000001</v>
+        <v>0.1019</v>
       </c>
       <c r="R11" s="1">
-        <v>3.4876999999999998</v>
+        <v>4.0534999999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>3.2479</v>
+        <v>3.8172999999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="U11" s="1">
-        <v>0.83289999999999997</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="V11" s="1">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.79769999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>4.3627000000000002</v>
+        <v>4.923</v>
       </c>
       <c r="C12" s="1">
-        <v>0.94169999999999998</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>1.32E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>3.4504000000000001</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.74729999999999996</v>
+        <v>7.3941999999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.97330000000000005</v>
       </c>
       <c r="G12" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="H12" s="1">
-        <v>5.8700000000000002E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>4.4047999999999998</v>
+        <v>4.9439000000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>4.2797000000000001</v>
+        <v>4.9002999999999997</v>
       </c>
       <c r="K12" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L12" s="1">
-        <v>0.94389999999999996</v>
+        <v>0.9264</v>
       </c>
       <c r="M12" s="1">
-        <v>0.94059999999999999</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O12" s="1">
-        <v>1.3299999999999999E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="P12" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>3.5546000000000002</v>
+        <v>7.4473000000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>3.3462999999999998</v>
+        <v>7.3434999999999997</v>
       </c>
       <c r="T12" s="1">
-        <v>1.29E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="U12" s="1">
-        <v>0.76490000000000002</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="V12" s="1">
-        <v>0.73440000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.94079999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1">
-        <v>4.5682</v>
+        <v>4.3310000000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>0.93610000000000004</v>
+        <v>0.9425</v>
       </c>
       <c r="D13" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>3.5714000000000001</v>
+        <v>2.0958999999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.76870000000000005</v>
+        <v>0.83450000000000002</v>
       </c>
       <c r="G13" s="2">
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="H13" s="1">
-        <v>7.6200000000000004E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>4.6696</v>
+        <v>4.4233000000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>4.4858000000000002</v>
+        <v>4.2670000000000003</v>
       </c>
       <c r="K13" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L13" s="1">
-        <v>0.93840000000000001</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>0.93320000000000003</v>
+        <v>0.94010000000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O13" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="P13" s="1">
-        <v>1.55E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.11360000000000001</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="R13" s="1">
-        <v>3.6989999999999998</v>
+        <v>2.1436000000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>3.423</v>
+        <v>2.0602</v>
       </c>
       <c r="T13" s="1">
-        <v>1.32E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="U13" s="1">
-        <v>0.78449999999999998</v>
+        <v>0.8448</v>
       </c>
       <c r="V13" s="1">
-        <v>0.75219999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.81879999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
-        <v>4.4386000000000001</v>
+        <v>4.7504</v>
       </c>
       <c r="C14" s="1">
-        <v>0.93959999999999999</v>
+        <v>0.93089999999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>3.8090000000000002</v>
+        <v>4.9020999999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>0.78990000000000005</v>
+        <v>0.88039999999999996</v>
       </c>
       <c r="G14" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H14" s="1">
-        <v>4.3400000000000001E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="I14" s="1">
-        <v>4.484</v>
+        <v>4.8028000000000004</v>
       </c>
       <c r="J14" s="1">
-        <v>4.3800999999999997</v>
+        <v>4.6559999999999997</v>
       </c>
       <c r="K14" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="L14" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>0.93840000000000001</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O14" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="P14" s="1">
-        <v>1.38E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.10780000000000001</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>3.915</v>
+        <v>5.0685000000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>3.6610999999999998</v>
+        <v>4.7968999999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>8.8000000000000005E-3</v>
+        <v>1.84E-2</v>
       </c>
       <c r="U14" s="1">
-        <v>0.80200000000000005</v>
+        <v>0.89959999999999996</v>
       </c>
       <c r="V14" s="1">
-        <v>0.78139999999999998</v>
+        <v>0.85550000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>4.6867999999999999</v>
+        <v>5.0789999999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>0.93269999999999997</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>1.6299999999999999E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>3.8776999999999999</v>
+        <v>7.2786999999999997</v>
       </c>
       <c r="F15" s="1">
-        <v>0.89629999999999999</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="G15" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H15" s="1">
-        <v>4.3099999999999999E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>4.7427999999999999</v>
+        <v>5.1509</v>
       </c>
       <c r="J15" s="1">
-        <v>4.6379000000000001</v>
+        <v>5.0130999999999997</v>
       </c>
       <c r="K15" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L15" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>0.93110000000000004</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="O15" s="1">
-        <v>1.66E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.12939999999999999</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>3.972</v>
+        <v>7.3640999999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>3.6947000000000001</v>
+        <v>7.2336</v>
       </c>
       <c r="T15" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="U15" s="1">
-        <v>0.93020000000000003</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="V15" s="1">
-        <v>0.87339999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>4.5895999999999999</v>
+        <v>4.5162000000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>0.9355</v>
+        <v>0.9375</v>
       </c>
       <c r="D16" s="1">
-        <v>1.49E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>3.9121000000000001</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>0.83440000000000003</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="G16" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H16" s="1">
-        <v>5.5100000000000003E-2</v>
+        <v>0.1019</v>
       </c>
       <c r="I16" s="1">
-        <v>4.6669</v>
+        <v>4.6601999999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>4.5425000000000004</v>
+        <v>4.4375</v>
       </c>
       <c r="K16" s="1">
-        <v>1.5E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="L16" s="1">
-        <v>0.93679999999999997</v>
+        <v>0.93969999999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.9335</v>
       </c>
       <c r="N16" s="1">
-        <v>1E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="O16" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="P16" s="1">
-        <v>1.47E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.1019</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="R16" s="1">
-        <v>4.0534999999999997</v>
+        <v>1.8251999999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>3.8172999999999999</v>
+        <v>1.8133999999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>3.5099999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="U16" s="1">
-        <v>0.88170000000000004</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="V16" s="1">
-        <v>0.79769999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>4.9724000000000004</v>
+        <v>4.5682</v>
       </c>
       <c r="C17" s="1">
-        <v>0.92420000000000002</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>1.8599999999999998E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>4.6878000000000002</v>
+        <v>3.5714000000000001</v>
       </c>
       <c r="F17" s="1">
-        <v>1.4568000000000001</v>
+        <v>0.76870000000000005</v>
       </c>
       <c r="G17" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="H17" s="1">
-        <v>0.1174</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>5.1330999999999998</v>
+        <v>4.6696</v>
       </c>
       <c r="J17" s="1">
-        <v>4.8560999999999996</v>
+        <v>4.4858000000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="L17" s="1">
-        <v>0.92779999999999996</v>
+        <v>0.93840000000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>0.91930000000000001</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="N17" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O17" s="1">
-        <v>1.9E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="P17" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.7099999999999998E-2</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>4.7675999999999998</v>
+        <v>3.6989999999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>4.6378000000000004</v>
+        <v>3.423</v>
       </c>
       <c r="T17" s="1">
-        <v>2.98E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="U17" s="1">
-        <v>1.4987999999999999</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="V17" s="1">
-        <v>1.4323999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.75219999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>4.6039000000000003</v>
+        <v>4.4297000000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>0.93510000000000004</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>4.71</v>
+        <v>2.4952000000000001</v>
       </c>
       <c r="F18" s="1">
-        <v>0.78549999999999998</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G18" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="H18" s="1">
-        <v>7.4099999999999999E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="I18" s="1">
-        <v>4.7047999999999996</v>
+        <v>4.4751000000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>4.5289999999999999</v>
+        <v>4.3967000000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L18" s="1">
-        <v>0.93720000000000003</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>0.93220000000000003</v>
+        <v>0.93869999999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O18" s="1">
-        <v>1.41E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="P18" s="1">
-        <v>1.37E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.5499999999999997E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>4.7563000000000004</v>
+        <v>2.5598000000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>4.67</v>
+        <v>2.4377</v>
       </c>
       <c r="T18" s="1">
-        <v>2.3599999999999999E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="U18" s="1">
-        <v>0.81359999999999999</v>
+        <v>0.84719999999999995</v>
       </c>
       <c r="V18" s="1">
-        <v>0.75590000000000002</v>
+        <v>0.77270000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>4.5491999999999999</v>
+        <v>4.7072000000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>0.93659999999999999</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>1.43E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>4.8042999999999996</v>
+        <v>3.3376000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>0.80669999999999997</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="G19" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H19" s="1">
-        <v>7.2599999999999998E-2</v>
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>4.62</v>
+        <v>4.7693000000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>4.4493</v>
+        <v>4.6353</v>
       </c>
       <c r="K19" s="1">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="L19" s="1">
-        <v>0.93940000000000001</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>0.93459999999999999</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="O19" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="P19" s="1">
-        <v>1.4E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.0499999999999997E-2</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>4.8838999999999997</v>
+        <v>3.4876999999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>4.6778000000000004</v>
+        <v>3.2479</v>
       </c>
       <c r="T19" s="1">
-        <v>2.5600000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="U19" s="1">
-        <v>0.8377</v>
+        <v>0.83289999999999997</v>
       </c>
       <c r="V19" s="1">
-        <v>0.77490000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>4.7504</v>
+        <v>5.0987</v>
       </c>
       <c r="C20" s="1">
-        <v>0.93089999999999995</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>4.9020999999999999</v>
+        <v>7.6227999999999998</v>
       </c>
       <c r="F20" s="1">
-        <v>0.88039999999999996</v>
+        <v>1.0291999999999999</v>
       </c>
       <c r="G20" s="2">
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="H20" s="1">
-        <v>6.6900000000000001E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>4.8028000000000004</v>
+        <v>5.1921999999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>4.6559999999999997</v>
+        <v>5.0297999999999998</v>
       </c>
       <c r="K20" s="1">
-        <v>1.9E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="L20" s="1">
-        <v>0.93359999999999999</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>0.92930000000000001</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="N20" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O20" s="1">
-        <v>1.54E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="P20" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.11899999999999999</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>5.0685000000000002</v>
+        <v>7.7263999999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>4.7968999999999999</v>
+        <v>7.4663000000000004</v>
       </c>
       <c r="T20" s="1">
-        <v>1.84E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="U20" s="1">
-        <v>0.89959999999999996</v>
+        <v>1.0694999999999999</v>
       </c>
       <c r="V20" s="1">
-        <v>0.85550000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+        <v>1.0087999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>4.9893999999999998</v>
+        <v>4.6867999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>0.92379999999999995</v>
+        <v>0.93269999999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>5.1712999999999996</v>
+        <v>3.8776999999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>1.4630000000000001</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="G21" s="2">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="H21" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="I21" s="1">
-        <v>5.0023999999999997</v>
+        <v>4.7427999999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>4.9743000000000004</v>
+        <v>4.6379000000000001</v>
       </c>
       <c r="K21" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="N21" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="L21" s="1">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.9234</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1E-4</v>
-      </c>
       <c r="O21" s="1">
-        <v>1.8200000000000001E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="P21" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.73E-2</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>5.1984000000000004</v>
+        <v>3.972</v>
       </c>
       <c r="S21" s="1">
-        <v>5.1185999999999998</v>
+        <v>3.6947000000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="U21" s="1">
-        <v>1.4861</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="V21" s="1">
-        <v>1.4379999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+        <v>0.87339999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.5579000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.9366000000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.49E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.6006</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4.5152000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2.0678000000000001</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.8498000000000001</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.72219999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>4.9930000000000003</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>0.92359999999999998</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>5.3120000000000003</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>1.4589000000000001</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>1.5625000000000001E-6</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <v>5.1135000000000002</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <v>4.9112</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K23" s="1">
         <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.92610000000000003</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.91990000000000005</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="R22" s="1">
-        <v>5.3986999999999998</v>
-      </c>
-      <c r="S22" s="1">
-        <v>5.2310999999999996</v>
-      </c>
-      <c r="T22" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1.5022</v>
-      </c>
-      <c r="V22" s="1">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5.0015999999999998</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.9234</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.83E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5.7835999999999999</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.4834000000000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3.1250000000000001E-6</v>
-      </c>
-      <c r="H23" s="1">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="I23" s="1">
-        <v>5.0640000000000001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4.9120999999999997</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2E-3</v>
       </c>
       <c r="L23" s="1">
         <v>0.92610000000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>0.92149999999999999</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="O23" s="1">
-        <v>1.8499999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="P23" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>5.3986999999999998</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5.2310999999999996</v>
+      </c>
+      <c r="T23" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1.5022</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.9893999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="D24" s="1">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="Q23" s="1">
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="R23" s="1">
-        <v>5.8432000000000004</v>
-      </c>
-      <c r="S23" s="1">
-        <v>5.7167000000000003</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1.4661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4.9710999999999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.92430000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.83E-2</v>
-      </c>
       <c r="E24" s="1">
-        <v>6.3685</v>
+        <v>5.1712999999999996</v>
       </c>
       <c r="F24" s="1">
-        <v>1.4998</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="G24" s="2">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="H24" s="1">
-        <v>3.7100000000000001E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>5.0228999999999999</v>
+        <v>5.0023999999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>4.9375</v>
+        <v>4.9743000000000004</v>
       </c>
       <c r="K24" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="L24" s="1">
-        <v>0.92530000000000001</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>0.92269999999999996</v>
+        <v>0.9234</v>
       </c>
       <c r="N24" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="O24" s="1">
-        <v>1.8700000000000001E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="P24" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="R24" s="1">
-        <v>6.4066999999999998</v>
+        <v>5.1984000000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>6.3474000000000004</v>
+        <v>5.1185999999999998</v>
       </c>
       <c r="T24" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="U24" s="1">
-        <v>1.5028999999999999</v>
+        <v>1.4861</v>
       </c>
       <c r="V24" s="1">
-        <v>1.4958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+        <v>1.4379999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
-        <v>5.0095999999999998</v>
+        <v>5.0015999999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>0.92310000000000003</v>
+        <v>0.9234</v>
       </c>
       <c r="D25" s="1">
-        <v>1.8599999999999998E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>6.5090000000000003</v>
+        <v>5.7835999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>1.4931000000000001</v>
+        <v>1.4834000000000001</v>
       </c>
       <c r="G25" s="2">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="H25" s="1">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5.0640000000000001</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.9120999999999997</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="R25" s="1">
+        <v>5.8432000000000004</v>
+      </c>
+      <c r="S25" s="1">
+        <v>5.7167000000000003</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1.4661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.9710999999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.3685</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5.0228999999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4.9375</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>6.4066999999999998</v>
+      </c>
+      <c r="S26" s="1">
+        <v>6.3474000000000004</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1.5028999999999999</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1.4958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.9724000000000004</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.6878000000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.4568000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1174</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5.1330999999999998</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4.8560999999999996</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4.7675999999999998</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4.6378000000000004</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1.4987999999999999</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1.4323999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.0095999999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.5090000000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.4931000000000001</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="H28" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I28" s="1">
         <v>5.0656999999999996</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J28" s="1">
         <v>4.9367000000000001</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K28" s="1">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L28" s="1">
         <v>0.9254</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M28" s="1">
         <v>0.9214</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N28" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O28" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P28" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q28" s="1">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R28" s="1">
         <v>6.5949999999999998</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S28" s="1">
         <v>6.4421999999999997</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T28" s="1">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U28" s="1">
         <v>1.5122</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V28" s="1">
         <v>1.4621</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5.0789999999999997</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.52E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>7.2786999999999997</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="I26" s="1">
-        <v>5.1509</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5.0130999999999997</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1.8E-3</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.91869999999999996</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="R26" s="1">
-        <v>7.3640999999999996</v>
-      </c>
-      <c r="S26" s="1">
-        <v>7.2336</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.95199999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4.923</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.92569999999999997</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.49E-2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>7.3941999999999997</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.97330000000000005</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.78E-2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>4.9439000000000002</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4.9002999999999997</v>
-      </c>
-      <c r="K27" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.9264</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="N27" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1.52E-2</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>4.24E-2</v>
-      </c>
-      <c r="R27" s="1">
-        <v>7.4473000000000003</v>
-      </c>
-      <c r="S27" s="1">
-        <v>7.3434999999999997</v>
-      </c>
-      <c r="T27" s="1">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0.94079999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5.0987</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>7.6227999999999998</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.0291999999999999</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5.1921999999999997</v>
-      </c>
-      <c r="J28" s="1">
-        <v>5.0297999999999998</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.91739999999999999</v>
-      </c>
-      <c r="N28" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.11260000000000001</v>
-      </c>
-      <c r="R28" s="1">
-        <v>7.7263999999999999</v>
-      </c>
-      <c r="S28" s="1">
-        <v>7.4663000000000004</v>
-      </c>
-      <c r="T28" s="1">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1.0694999999999999</v>
-      </c>
-      <c r="V28" s="1">
-        <v>1.0087999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -3051,211 +3052,211 @@
         <v>1.5007999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
-        <v>8.9893999999999998</v>
+        <v>8.9445999999999994</v>
       </c>
       <c r="C30" s="1">
-        <v>0.65269999999999995</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="D30" s="1">
-        <v>5.0299999999999997E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>18.505099999999999</v>
+        <v>18.688500000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>5.8535000000000004</v>
+        <v>5.7739000000000003</v>
       </c>
       <c r="G30" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H30" s="1">
-        <v>5.7085999999999997</v>
+        <v>5.7866</v>
       </c>
       <c r="I30" s="1">
-        <v>17.062100000000001</v>
+        <v>17.1281</v>
       </c>
       <c r="J30" s="1">
-        <v>4.8752000000000004</v>
+        <v>4.8486000000000002</v>
       </c>
       <c r="K30" s="1">
-        <v>0.38490000000000002</v>
+        <v>0.3896</v>
       </c>
       <c r="L30" s="1">
-        <v>0.92720000000000002</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="M30" s="1">
-        <v>0.10829999999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="N30" s="1">
-        <v>4.5699999999999998E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="O30" s="1">
-        <v>0.1149</v>
+        <v>0.1138</v>
       </c>
       <c r="P30" s="1">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="Q30" s="1">
-        <v>18.6785</v>
+        <v>19.7986</v>
       </c>
       <c r="R30" s="1">
-        <v>44.920400000000001</v>
+        <v>46.687899999999999</v>
       </c>
       <c r="S30" s="1">
-        <v>5.2599</v>
+        <v>4.6432000000000002</v>
       </c>
       <c r="T30" s="1">
-        <v>6.2095000000000002</v>
+        <v>6.0694999999999997</v>
       </c>
       <c r="U30" s="1">
-        <v>14.6349</v>
+        <v>14.3574</v>
       </c>
       <c r="V30" s="1">
-        <v>1.4415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+        <v>1.4742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
-        <v>8.9445999999999994</v>
+        <v>8.9803999999999995</v>
       </c>
       <c r="C31" s="1">
-        <v>0.65239999999999998</v>
+        <v>0.6522</v>
       </c>
       <c r="D31" s="1">
-        <v>4.9799999999999997E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>18.688500000000001</v>
+        <v>18.7559</v>
       </c>
       <c r="F31" s="1">
-        <v>5.7739000000000003</v>
+        <v>5.9</v>
       </c>
       <c r="G31" s="2">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="H31" s="1">
-        <v>5.7866</v>
+        <v>5.7369000000000003</v>
       </c>
       <c r="I31" s="1">
-        <v>17.1281</v>
+        <v>17.093499999999999</v>
       </c>
       <c r="J31" s="1">
-        <v>4.8486000000000002</v>
+        <v>4.9215999999999998</v>
       </c>
       <c r="K31" s="1">
-        <v>0.3896</v>
+        <v>0.38690000000000002</v>
       </c>
       <c r="L31" s="1">
-        <v>0.92800000000000005</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="M31" s="1">
-        <v>0.1014</v>
+        <v>0.105</v>
       </c>
       <c r="N31" s="1">
-        <v>4.5199999999999997E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="O31" s="1">
-        <v>0.1138</v>
+        <v>0.1143</v>
       </c>
       <c r="P31" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>17.7165</v>
+      </c>
+      <c r="R31" s="1">
+        <v>43.810600000000001</v>
+      </c>
+      <c r="S31" s="1">
+        <v>6.157</v>
+      </c>
+      <c r="T31" s="1">
+        <v>6.2375999999999996</v>
+      </c>
+      <c r="U31" s="1">
+        <v>14.721299999999999</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1.4852000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.9893999999999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>18.505099999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.8535000000000004</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.5625000000000001E-6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.7085999999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>17.062100000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4.8752000000000004</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.1149</v>
+      </c>
+      <c r="P32" s="1">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="Q31" s="1">
-        <v>19.7986</v>
-      </c>
-      <c r="R31" s="1">
-        <v>46.687899999999999</v>
-      </c>
-      <c r="S31" s="1">
-        <v>4.6432000000000002</v>
-      </c>
-      <c r="T31" s="1">
-        <v>6.0694999999999997</v>
-      </c>
-      <c r="U31" s="1">
-        <v>14.3574</v>
-      </c>
-      <c r="V31" s="1">
-        <v>1.4742</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1">
-        <v>8.9803999999999995</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.6522</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>18.7559</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="G32" s="2">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.7369000000000003</v>
-      </c>
-      <c r="I32" s="1">
-        <v>17.093499999999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4.9215999999999998</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.38690000000000002</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.92579999999999996</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="N32" s="1">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.1143</v>
-      </c>
-      <c r="P32" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
       <c r="Q32" s="1">
-        <v>17.7165</v>
+        <v>18.6785</v>
       </c>
       <c r="R32" s="1">
-        <v>43.810600000000001</v>
+        <v>44.920400000000001</v>
       </c>
       <c r="S32" s="1">
-        <v>6.157</v>
+        <v>5.2599</v>
       </c>
       <c r="T32" s="1">
-        <v>6.2375999999999996</v>
+        <v>6.2095000000000002</v>
       </c>
       <c r="U32" s="1">
-        <v>14.721299999999999</v>
+        <v>14.6349</v>
       </c>
       <c r="V32" s="1">
-        <v>1.4852000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+        <v>1.4415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -3323,214 +3324,225 @@
         <v>1.5591999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>13.1378</v>
+        <v>13.0524</v>
       </c>
       <c r="C34" s="1">
-        <v>0.37490000000000001</v>
+        <v>0.37730000000000002</v>
       </c>
       <c r="D34" s="1">
-        <v>8.2199999999999995E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>30.288499999999999</v>
+        <v>32.050699999999999</v>
       </c>
       <c r="F34" s="1">
-        <v>10.0311</v>
+        <v>10.007300000000001</v>
       </c>
       <c r="G34" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>1.9531250000000001E-7</v>
       </c>
       <c r="H34" s="1">
-        <v>5.6109999999999998</v>
+        <v>5.7375999999999996</v>
       </c>
       <c r="I34" s="1">
-        <v>17.108000000000001</v>
+        <v>17.1145</v>
       </c>
       <c r="J34" s="1">
-        <v>5.2026000000000003</v>
+        <v>4.9382000000000001</v>
       </c>
       <c r="K34" s="1">
-        <v>0.38340000000000002</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="L34" s="1">
-        <v>0.91710000000000003</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="M34" s="1">
-        <v>0.10349999999999999</v>
+        <v>0.1028</v>
       </c>
       <c r="N34" s="1">
-        <v>4.5100000000000001E-2</v>
+        <v>4.53E-2</v>
       </c>
       <c r="O34" s="1">
         <v>0.11409999999999999</v>
       </c>
       <c r="P34" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>18.994700000000002</v>
+      </c>
+      <c r="R34" s="1">
+        <v>45.597700000000003</v>
+      </c>
+      <c r="S34" s="1">
+        <v>5.1885000000000003</v>
+      </c>
+      <c r="T34" s="1">
+        <v>6.0354999999999999</v>
+      </c>
+      <c r="U34" s="1">
+        <v>14.2925</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1.4718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13.1378</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30.288499999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10.0311</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3.9062500000000002E-7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5.6109999999999998</v>
+      </c>
+      <c r="I35" s="1">
+        <v>17.108000000000001</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5.2026000000000003</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="N35" s="1">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="P35" s="1">
         <v>1.84E-2</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q35" s="1">
         <v>16.751100000000001</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R35" s="1">
         <v>42.369500000000002</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S35" s="1">
         <v>6.6003999999999996</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T35" s="1">
         <v>6.0500999999999996</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U35" s="1">
         <v>14.477499999999999</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V35" s="1">
         <v>1.4772000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>13.0808</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>0.37780000000000002</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>31.396599999999999</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F36" s="1">
         <v>10.2393</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>7.8125000000000004E-7</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H36" s="1">
         <v>5.6600999999999999</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I36" s="1">
         <v>17.086500000000001</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J36" s="1">
         <v>5.0762</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K36" s="1">
         <v>0.38419999999999999</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L36" s="1">
         <v>0.92110000000000003</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M36" s="1">
         <v>0.10580000000000001</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N36" s="1">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O36" s="1">
         <v>0.1145</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P36" s="1">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q36" s="1">
         <v>18.300899999999999</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R36" s="1">
         <v>44.439599999999999</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S36" s="1">
         <v>5.5155000000000003</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T36" s="1">
         <v>6.1830999999999996</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U36" s="1">
         <v>14.7026</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V36" s="1">
         <v>1.4957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1">
-        <v>13.0524</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.37730000000000002</v>
-      </c>
-      <c r="D36" s="1">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>32.050699999999999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>10.007300000000001</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1.9531250000000001E-7</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5.7375999999999996</v>
-      </c>
-      <c r="I36" s="1">
-        <v>17.1145</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4.9382000000000001</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0.1028</v>
-      </c>
-      <c r="N36" s="1">
-        <v>4.53E-2</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>18.994700000000002</v>
-      </c>
-      <c r="R36" s="1">
-        <v>45.597700000000003</v>
-      </c>
-      <c r="S36" s="1">
-        <v>5.1885000000000003</v>
-      </c>
-      <c r="T36" s="1">
-        <v>6.0354999999999999</v>
-      </c>
-      <c r="U36" s="1">
-        <v>14.2925</v>
-      </c>
-      <c r="V36" s="1">
-        <v>1.4718</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V36" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V36">
-      <sortCondition ref="E1:E36"/>
+      <sortCondition ref="D1:D36"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3541,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2077006A-64D3-4F8C-AFE2-A90566122981}">
   <dimension ref="D5:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D24"/>
     </sheetView>
   </sheetViews>
@@ -3549,10 +3561,10 @@
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.5358000000000001</v>
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.32E-2</v>
       </c>
       <c r="F5" s="5">
         <v>0.7016</v>
@@ -3560,10 +3572,10 @@
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.7454000000000001</v>
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.35E-2</v>
       </c>
       <c r="F6" s="5">
         <v>0.74150000000000005</v>
@@ -3571,10 +3583,10 @@
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.8177000000000001</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="F7" s="4">
         <v>0.76329999999999998</v>
@@ -3582,10 +3594,10 @@
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.9366000000000001</v>
+        <v>53</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="F8" s="5">
         <v>0.74629999999999996</v>
@@ -3593,10 +3605,10 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.0958999999999999</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="F9" s="4">
         <v>0.83450000000000002</v>
@@ -3604,10 +3616,10 @@
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.4952000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.43E-2</v>
       </c>
       <c r="F10" s="4">
         <v>0.81599999999999995</v>
@@ -3615,10 +3627,10 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.9674</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F11" s="4">
         <v>0.75900000000000001</v>
@@ -3626,10 +3638,10 @@
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.0118999999999998</v>
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.46E-2</v>
       </c>
       <c r="F12" s="5">
         <v>0.74750000000000005</v>
@@ -3639,8 +3651,8 @@
       <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="4">
-        <v>3.3010000000000002</v>
+      <c r="E13" s="1">
+        <v>1.47E-2</v>
       </c>
       <c r="F13" s="4">
         <v>0.8599</v>
@@ -3648,10 +3660,10 @@
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3.3376000000000001</v>
+        <v>47</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.49E-2</v>
       </c>
       <c r="F14" s="4">
         <v>0.82310000000000005</v>
@@ -3659,10 +3671,10 @@
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3.4504000000000001</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.49E-2</v>
       </c>
       <c r="F15" s="5">
         <v>0.74729999999999996</v>
@@ -3670,10 +3682,10 @@
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3.5714000000000001</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F16" s="4">
         <v>0.76870000000000005</v>
@@ -3681,10 +3693,10 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3.8090000000000002</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F17" s="4">
         <v>0.78990000000000005</v>
@@ -3692,10 +3704,10 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3.8776999999999999</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.52E-2</v>
       </c>
       <c r="F18" s="4">
         <v>0.89629999999999999</v>
@@ -3703,10 +3715,10 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3.9121000000000001</v>
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.54E-2</v>
       </c>
       <c r="F19" s="4">
         <v>0.83440000000000003</v>
@@ -3714,10 +3726,10 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4.6878000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F20" s="4">
         <v>1.4568000000000001</v>
@@ -3725,10 +3737,10 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4.71</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F21" s="4">
         <v>0.78549999999999998</v>
@@ -3736,10 +3748,10 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4.8042999999999996</v>
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F22" s="4">
         <v>0.80669999999999997</v>
@@ -3747,10 +3759,10 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>4.9020999999999999</v>
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F23" s="4">
         <v>0.88039999999999996</v>
@@ -3758,10 +3770,10 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5.1712999999999996</v>
+        <v>27</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="F24" s="4">
         <v>1.4630000000000001</v>

--- a/Thesis-codes/Exp-9/results/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-9/results/fc1_all_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-9\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2657E9-BAAC-4EDD-8FC4-B358D03A8A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5258257-F490-4F88-9FE4-84DB1A3626AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28714" yWindow="1989" windowWidth="27308" windowHeight="14331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23631" yWindow="3163" windowWidth="20408" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1063,14 +1063,14 @@
     <col min="2" max="2" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.4609375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.765625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.921875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.765625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3828125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.15234375" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.23046875" style="1" bestFit="1" customWidth="1"/>
